--- a/01.STATISTICA/File_Del_Corso/excel_per_studio.xlsx
+++ b/01.STATISTICA/File_Del_Corso/excel_per_studio.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgian\Desktop\STUDIO INDIVIDUALE\STUDIOO\01.STATISTICA\File_Del_Corso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1412966-2675-445B-BA16-462FFAC58937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A96C63-A4A9-4BF0-A508-CF8F7D0FC1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabella" sheetId="1" r:id="rId1"/>
-    <sheet name="distribuzione_di_frequenza" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
+    <sheet name="distribuzione_di_frequenza" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">distribuzione_di_frequenza!$D$261:$D$356</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="33">
   <si>
     <t>Student ID</t>
   </si>
@@ -102,13 +108,40 @@
   <si>
     <t>Freq Percentuale Studenti iscritti</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Conteggio</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>not placed</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Sum of Undergrad Grade</t>
+  </si>
+  <si>
+    <t>Count of Undergrad Grade</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,25 +251,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,6 +307,100 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jacopo Gianfranchi" refreshedDate="45534.540960532409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="95" xr:uid="{656C9AF9-6AA2-41EA-9C1D-209E8F97AF89}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D261:D356" sheet="distribuzione_di_frequenza"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Undergrad Grade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="60.9" maxValue="100" count="75">
+        <n v="60.9"/>
+        <n v="61.2"/>
+        <n v="62.1"/>
+        <n v="62.5"/>
+        <n v="62.8"/>
+        <n v="63.3"/>
+        <n v="63.5"/>
+        <n v="64"/>
+        <n v="65.3"/>
+        <n v="65.400000000000006"/>
+        <n v="66"/>
+        <n v="66.3"/>
+        <n v="66.5"/>
+        <n v="67.5"/>
+        <n v="67.7"/>
+        <n v="67.900000000000006"/>
+        <n v="68"/>
+        <n v="68.099999999999994"/>
+        <n v="68.3"/>
+        <n v="68.400000000000006"/>
+        <n v="68.7"/>
+        <n v="69.400000000000006"/>
+        <n v="70.099999999999994"/>
+        <n v="70.2"/>
+        <n v="70.400000000000006"/>
+        <n v="70.900000000000006"/>
+        <n v="71.400000000000006"/>
+        <n v="71.7"/>
+        <n v="71.900000000000006"/>
+        <n v="74"/>
+        <n v="74.099999999999994"/>
+        <n v="74.400000000000006"/>
+        <n v="74.5"/>
+        <n v="74.599999999999994"/>
+        <n v="75"/>
+        <n v="75.099999999999994"/>
+        <n v="75.2"/>
+        <n v="75.3"/>
+        <n v="75.599999999999994"/>
+        <n v="75.7"/>
+        <n v="75.8"/>
+        <n v="76"/>
+        <n v="76.099999999999994"/>
+        <n v="76.2"/>
+        <n v="76.400000000000006"/>
+        <n v="76.5"/>
+        <n v="76.8"/>
+        <n v="76.900000000000006"/>
+        <n v="78"/>
+        <n v="78.5"/>
+        <n v="78.900000000000006"/>
+        <n v="79.099999999999994"/>
+        <n v="79.2"/>
+        <n v="79.3"/>
+        <n v="79.400000000000006"/>
+        <n v="79.7"/>
+        <n v="79.900000000000006"/>
+        <n v="80.3"/>
+        <n v="81.7"/>
+        <n v="82.1"/>
+        <n v="82.3"/>
+        <n v="82.4"/>
+        <n v="82.6"/>
+        <n v="82.8"/>
+        <n v="82.9"/>
+        <n v="83"/>
+        <n v="83.3"/>
+        <n v="83.4"/>
+        <n v="87.1"/>
+        <n v="88.1"/>
+        <n v="88.7"/>
+        <n v="88.8"/>
+        <n v="88.9"/>
+        <n v="93.6"/>
+        <n v="100"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="95">
   <r>
@@ -564,12 +687,638 @@
   </r>
   <r>
     <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="95">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA470F30-D58A-44E0-A0B3-67009DA71820}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Materie">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{253E1262-9AFF-416C-88A9-23C71AA6E074}" name="PivotTable9" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G272:H348" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="76">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="76">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Undergrad Grade" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA470F30-D58A-44E0-A0B3-67009DA71820}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Materie">
   <location ref="I7:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -622,6 +1371,16 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA10BDB1-1EDA-4BA3-8727-F595B671ED40}" name="Table2" displayName="Table2" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{BA10BDB1-1EDA-4BA3-8727-F595B671ED40}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{96CCE9A1-0178-4BAB-961F-3DBB90CE7196}" name="Sum of Undergrad Grade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3612,39 +4371,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DF47EB-465D-4578-B397-2766CF1FEDC2}">
-  <dimension ref="C5:K100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D462CE8-051A-41C9-AAD0-797B2EC6F7AA}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAC14A9-CADB-4FFC-9B42-1385FB9D8AC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DF47EB-465D-4578-B397-2766CF1FEDC2}">
+  <dimension ref="C5:K356"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B323" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J290" sqref="J290"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
@@ -3652,93 +4457,93 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H18" t="s">
@@ -3747,12 +4552,12 @@
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H19" t="s">
@@ -3767,7 +4572,7 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H20" t="s">
@@ -3776,13 +4581,13 @@
       <c r="I20">
         <v>36</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20">
         <f t="shared" ref="J20:J24" si="0">I20/I$24</f>
         <v>0.37894736842105264</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
@@ -3791,13 +4596,13 @@
       <c r="I21">
         <v>19</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
@@ -3806,13 +4611,13 @@
       <c r="I22">
         <v>18</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>0.18947368421052632</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
@@ -3821,13 +4626,13 @@
       <c r="I23">
         <v>13</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H24" t="s">
@@ -3836,28 +4641,28 @@
       <c r="I24">
         <v>95</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H28" t="s">
@@ -3869,12 +4674,12 @@
       <c r="J28" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H29" t="s">
@@ -3892,7 +4697,7 @@
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H30" t="s">
@@ -3904,13 +4709,13 @@
       <c r="J30">
         <v>0.38</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30">
         <f t="shared" ref="K30:K34" si="1">J30*100</f>
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
@@ -3922,13 +4727,13 @@
       <c r="J31">
         <v>0.2</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
@@ -3940,13 +4745,13 @@
       <c r="J32">
         <v>0.19</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
@@ -3958,13 +4763,13 @@
       <c r="J33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>14.000000000000002</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H34" t="s">
@@ -3976,33 +4781,33 @@
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H39" t="s">
@@ -4014,12 +4819,12 @@
       <c r="J39" t="s">
         <v>21</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H40" t="s">
@@ -4031,12 +4836,12 @@
       <c r="J40">
         <v>0.09</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="10">
         <v>0.09</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
@@ -4048,12 +4853,12 @@
       <c r="J41">
         <v>0.38</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="10">
         <v>0.38</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H42" t="s">
@@ -4065,12 +4870,12 @@
       <c r="J42">
         <v>0.2</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="10">
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H43" t="s">
@@ -4082,12 +4887,12 @@
       <c r="J43">
         <v>0.19</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="10">
         <v>0.19</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
@@ -4099,12 +4904,12 @@
       <c r="J44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="10">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
@@ -4116,286 +4921,1895 @@
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146">
+        <f>COUNTIFS(C140:C234,C140)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147">
+        <f>COUNTIFS(C140:C234,C143)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148">
+        <f>G146+G147</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C149" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C151" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C152" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C153" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C154" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C155" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C156" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C157" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C158" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C159" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C160" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C261" s="1"/>
+      <c r="D261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C262" s="1"/>
+      <c r="D262">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="263" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C263" s="1"/>
+      <c r="D263">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="264" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C264" s="1"/>
+      <c r="D264">
+        <v>62.1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>32</v>
+      </c>
+      <c r="G264">
+        <f>MIN(D262:D356)</f>
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="265" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C265" s="1"/>
+      <c r="D265">
+        <v>62.5</v>
+      </c>
+      <c r="F265" t="s">
+        <v>31</v>
+      </c>
+      <c r="G265">
+        <f>MAX(D262:D356)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C266" s="1"/>
+      <c r="D266">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="267" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C267" s="1"/>
+      <c r="D267">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="268" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C268" s="1"/>
+      <c r="D268">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C269" s="1"/>
+      <c r="D269">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C270" s="1"/>
+      <c r="D270">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="271" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C271" s="1"/>
+      <c r="D271">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C272" s="1"/>
+      <c r="D272">
+        <v>66</v>
+      </c>
+      <c r="G272" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H272" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C273" s="1"/>
+      <c r="D273">
+        <v>66</v>
+      </c>
+      <c r="G273" s="9">
+        <v>60.9</v>
+      </c>
+      <c r="H273" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C274" s="1"/>
+      <c r="D274">
+        <v>66.3</v>
+      </c>
+      <c r="G274" s="9">
+        <v>61.2</v>
+      </c>
+      <c r="H274" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C275" s="1"/>
+      <c r="D275">
+        <v>66.5</v>
+      </c>
+      <c r="G275" s="9">
+        <v>62.1</v>
+      </c>
+      <c r="H275" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C276" s="1"/>
+      <c r="D276">
+        <v>67.5</v>
+      </c>
+      <c r="G276" s="9">
+        <v>62.5</v>
+      </c>
+      <c r="H276" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C277" s="1"/>
+      <c r="D277">
+        <v>67.7</v>
+      </c>
+      <c r="G277" s="9">
+        <v>62.8</v>
+      </c>
+      <c r="H277" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C278" s="1"/>
+      <c r="D278">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G278" s="9">
+        <v>63.3</v>
+      </c>
+      <c r="H278" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C279" s="1"/>
+      <c r="D279">
+        <v>68</v>
+      </c>
+      <c r="G279" s="9">
+        <v>63.5</v>
+      </c>
+      <c r="H279" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C280" s="1"/>
+      <c r="D280">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G280" s="9">
+        <v>64</v>
+      </c>
+      <c r="H280" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C281" s="1"/>
+      <c r="D281">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G281" s="9">
+        <v>65.3</v>
+      </c>
+      <c r="H281" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C282" s="1"/>
+      <c r="D282">
+        <v>68.3</v>
+      </c>
+      <c r="G282" s="9">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="H282" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C283" s="1"/>
+      <c r="D283">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G283" s="9">
+        <v>66</v>
+      </c>
+      <c r="H283" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C284" s="1"/>
+      <c r="D284">
+        <v>68.7</v>
+      </c>
+      <c r="G284" s="9">
+        <v>66.3</v>
+      </c>
+      <c r="H284" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C285" s="1"/>
+      <c r="D285">
+        <v>68.7</v>
+      </c>
+      <c r="G285" s="9">
+        <v>66.5</v>
+      </c>
+      <c r="H285" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C286" s="1"/>
+      <c r="D286">
+        <v>68.7</v>
+      </c>
+      <c r="G286" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="H286" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C287" s="1"/>
+      <c r="D287">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G287" s="9">
+        <v>67.7</v>
+      </c>
+      <c r="H287" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C288" s="1"/>
+      <c r="D288">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G288" s="9">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H288" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C289" s="1"/>
+      <c r="D289">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G289" s="9">
+        <v>68</v>
+      </c>
+      <c r="H289" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C290" s="1"/>
+      <c r="D290">
+        <v>70.2</v>
+      </c>
+      <c r="G290" s="9">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H290" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C291" s="1"/>
+      <c r="D291">
+        <v>70.2</v>
+      </c>
+      <c r="G291" s="9">
+        <v>68.3</v>
+      </c>
+      <c r="H291" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C292" s="1"/>
+      <c r="D292">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G292" s="9">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H292" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C293" s="1"/>
+      <c r="D293">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G293" s="9">
+        <v>68.7</v>
+      </c>
+      <c r="H293" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C294" s="1"/>
+      <c r="D294">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G294" s="9">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H294" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C295" s="1"/>
+      <c r="D295">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G295" s="9">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H295" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C296" s="1"/>
+      <c r="D296">
+        <v>71.7</v>
+      </c>
+      <c r="G296" s="9">
+        <v>70.2</v>
+      </c>
+      <c r="H296" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C297" s="1"/>
+      <c r="D297">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G297" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H297" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C298" s="1"/>
+      <c r="D298">
+        <v>74</v>
+      </c>
+      <c r="G298" s="9">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H298" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C299" s="1"/>
+      <c r="D299">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G299" s="9">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H299" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C300" s="1"/>
+      <c r="D300">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G300" s="9">
+        <v>71.7</v>
+      </c>
+      <c r="H300" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C301" s="1"/>
+      <c r="D301">
+        <v>74.5</v>
+      </c>
+      <c r="G301" s="9">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="H301" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C302" s="1"/>
+      <c r="D302">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G302" s="9">
+        <v>74</v>
+      </c>
+      <c r="H302" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C303" s="1"/>
+      <c r="D303">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G303" s="9">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H303" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C304" s="1"/>
+      <c r="D304">
+        <v>75</v>
+      </c>
+      <c r="G304" s="9">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H304" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C305" s="1"/>
+      <c r="D305">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="G305" s="9">
+        <v>74.5</v>
+      </c>
+      <c r="H305" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C306" s="1"/>
+      <c r="D306">
+        <v>75.2</v>
+      </c>
+      <c r="G306" s="9">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="H306" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C307" s="1"/>
+      <c r="D307">
+        <v>75.3</v>
+      </c>
+      <c r="G307" s="9">
+        <v>75</v>
+      </c>
+      <c r="H307" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C308" s="1"/>
+      <c r="D308">
+        <v>75.3</v>
+      </c>
+      <c r="G308" s="9">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H308" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C309" s="1"/>
+      <c r="D309">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G309" s="9">
+        <v>75.2</v>
+      </c>
+      <c r="H309" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C310" s="1"/>
+      <c r="D310">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G310" s="9">
+        <v>75.3</v>
+      </c>
+      <c r="H310" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C311" s="1"/>
+      <c r="D311">
+        <v>75.7</v>
+      </c>
+      <c r="G311" s="9">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="H311" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C312" s="1"/>
+      <c r="D312">
+        <v>75.7</v>
+      </c>
+      <c r="G312" s="9">
+        <v>75.7</v>
+      </c>
+      <c r="H312" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C313" s="1"/>
+      <c r="D313">
+        <v>75.8</v>
+      </c>
+      <c r="G313" s="9">
+        <v>75.8</v>
+      </c>
+      <c r="H313" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C314" s="1"/>
+      <c r="D314">
+        <v>75.8</v>
+      </c>
+      <c r="G314" s="9">
+        <v>76</v>
+      </c>
+      <c r="H314" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C315" s="1"/>
+      <c r="D315">
+        <v>76</v>
+      </c>
+      <c r="G315" s="9">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="H315" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C316" s="1"/>
+      <c r="D316">
+        <v>76</v>
+      </c>
+      <c r="G316" s="9">
+        <v>76.2</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C317" s="1"/>
+      <c r="D317">
+        <v>76</v>
+      </c>
+      <c r="G317" s="9">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="H317" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C318" s="1"/>
+      <c r="D318">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="G318" s="9">
+        <v>76.5</v>
+      </c>
+      <c r="H318" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C319" s="1"/>
+      <c r="D319">
+        <v>76.2</v>
+      </c>
+      <c r="G319" s="9">
+        <v>76.8</v>
+      </c>
+      <c r="H319" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C320" s="1"/>
+      <c r="D320">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G320" s="9">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="H320" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C321" s="1"/>
+      <c r="D321">
+        <v>76.5</v>
+      </c>
+      <c r="G321" s="9">
+        <v>78</v>
+      </c>
+      <c r="H321" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C322" s="1"/>
+      <c r="D322">
+        <v>76.8</v>
+      </c>
+      <c r="G322" s="9">
+        <v>78.5</v>
+      </c>
+      <c r="H322" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C323" s="1"/>
+      <c r="D323">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="G323" s="9">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="H323" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C324" s="1"/>
+      <c r="D324">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="G324" s="9">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H324" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C325" s="1"/>
+      <c r="D325">
+        <v>78</v>
+      </c>
+      <c r="G325" s="9">
+        <v>79.2</v>
+      </c>
+      <c r="H325" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C326" s="1"/>
+      <c r="D326">
+        <v>78</v>
+      </c>
+      <c r="G326" s="9">
+        <v>79.3</v>
+      </c>
+      <c r="H326" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C327" s="1"/>
+      <c r="D327">
+        <v>78.5</v>
+      </c>
+      <c r="G327" s="9">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H327" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C328" s="1"/>
+      <c r="D328">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G328" s="9">
+        <v>79.7</v>
+      </c>
+      <c r="H328" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C329" s="1"/>
+      <c r="D329">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="G329" s="9">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H329" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C330" s="1"/>
+      <c r="D330">
+        <v>79.2</v>
+      </c>
+      <c r="G330" s="9">
+        <v>80.3</v>
+      </c>
+      <c r="H330" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C331" s="1"/>
+      <c r="D331">
+        <v>79.2</v>
+      </c>
+      <c r="G331" s="9">
+        <v>81.7</v>
+      </c>
+      <c r="H331" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C332" s="1"/>
+      <c r="D332">
+        <v>79.3</v>
+      </c>
+      <c r="G332" s="9">
+        <v>82.1</v>
+      </c>
+      <c r="H332" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C333" s="1"/>
+      <c r="D333">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G333" s="9">
+        <v>82.3</v>
+      </c>
+      <c r="H333" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C334" s="1"/>
+      <c r="D334">
+        <v>79.7</v>
+      </c>
+      <c r="G334" s="9">
+        <v>82.4</v>
+      </c>
+      <c r="H334" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C335" s="1"/>
+      <c r="D335">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="G335" s="9">
+        <v>82.6</v>
+      </c>
+      <c r="H335" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>80.3</v>
+      </c>
+      <c r="G336" s="9">
+        <v>82.8</v>
+      </c>
+      <c r="H336" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>81.7</v>
+      </c>
+      <c r="G337" s="9">
+        <v>82.9</v>
+      </c>
+      <c r="H337" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>82.1</v>
+      </c>
+      <c r="G338" s="9">
+        <v>83</v>
+      </c>
+      <c r="H338" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>82.3</v>
+      </c>
+      <c r="G339" s="9">
+        <v>83.3</v>
+      </c>
+      <c r="H339" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>82.4</v>
+      </c>
+      <c r="G340" s="9">
+        <v>83.4</v>
+      </c>
+      <c r="H340" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>82.6</v>
+      </c>
+      <c r="G341" s="9">
+        <v>87.1</v>
+      </c>
+      <c r="H341" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D342">
+        <v>82.6</v>
+      </c>
+      <c r="G342" s="9">
+        <v>88.1</v>
+      </c>
+      <c r="H342" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D343">
+        <v>82.8</v>
+      </c>
+      <c r="G343" s="9">
+        <v>88.7</v>
+      </c>
+      <c r="H343" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D344">
+        <v>82.9</v>
+      </c>
+      <c r="G344" s="9">
+        <v>88.8</v>
+      </c>
+      <c r="H344" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>83</v>
+      </c>
+      <c r="G345" s="9">
+        <v>88.9</v>
+      </c>
+      <c r="H345" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D346">
+        <v>83</v>
+      </c>
+      <c r="G346" s="9">
+        <v>93.6</v>
+      </c>
+      <c r="H346" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>83</v>
+      </c>
+      <c r="G347" s="9">
+        <v>100</v>
+      </c>
+      <c r="H347" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D348">
+        <v>83.3</v>
+      </c>
+      <c r="G348" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="349" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="350" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D350">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="351" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D351">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="352" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D352">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="D261:D356" xr:uid="{C9DF47EB-465D-4578-B397-2766CF1FEDC2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D262:D356">
+      <sortCondition ref="D262:D356"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C241:C335">
+    <sortCondition ref="C241:C335"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>